--- a/target/test-classes/com/inetbanking_v1/Testdata/LoginData.xlsx
+++ b/target/test-classes/com/inetbanking_v1/Testdata/LoginData.xlsx
@@ -3,15 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{28B983F6-1DCC-4E79-B56D-EBA93E2C2BBD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FEF51BB-7623-46B6-9B2F-80050050D8AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="22284" windowHeight="13224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,12 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
-    <t>mngr83460</t>
-  </si>
-  <si>
-    <t>qAbUzyj</t>
-  </si>
-  <si>
     <t>username</t>
   </si>
   <si>
@@ -57,6 +50,12 @@
   </si>
   <si>
     <t>samEseb</t>
+  </si>
+  <si>
+    <t>mngr324918</t>
+  </si>
+  <si>
+    <t>dYbumAp</t>
   </si>
 </sst>
 </file>
@@ -461,7 +460,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -472,34 +471,34 @@
   <sheetData>
     <row r="1" spans="1:2" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="23.4" x14ac:dyDescent="0.45">
@@ -512,18 +511,18 @@
     </row>
     <row r="6" spans="1:2" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
